--- a/reporttankmovil/certificadoTemplate.xlsx
+++ b/reporttankmovil/certificadoTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\API_REST_DRF\api_qc_django_restf_v2\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\API_REST_DRF\api_qc_django_restf_v2\reporttankmovil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -533,6 +533,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -555,43 +588,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,118 +1135,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="14" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -1254,14 +1254,14 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -1270,22 +1270,22 @@
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" t="s">
         <v>8</v>
       </c>
@@ -1296,16 +1296,19 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="11"/>
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <f>E16*3.78541</f>
+        <v>0</v>
+      </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
@@ -1318,41 +1321,41 @@
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
@@ -1362,192 +1365,192 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="24" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="13"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -1555,90 +1558,90 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="31"/>
       <c r="F42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:8" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17" t="s">
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1651,6 +1654,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D1:H4"/>
+    <mergeCell ref="A45:H46"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F38:H41"/>
@@ -1667,57 +1721,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D1:H4"/>
-    <mergeCell ref="A45:H46"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
